--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地审批-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地审批-导出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19005" windowHeight="10950"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>{Form=1}</t>
   </si>
@@ -33,6 +33,12 @@
     <t>{Node=1}</t>
   </si>
   <si>
+    <t>{Value=1}</t>
+  </si>
+  <si>
+    <t>{RateValue=1}</t>
+  </si>
+  <si>
     <t xml:space="preserve">    其中：{Node=3}</t>
   </si>
   <si>
@@ -67,6 +73,12 @@
   </si>
   <si>
     <t>{Area=1}</t>
+  </si>
+  <si>
+    <t>{Value=1 Node=1}</t>
+  </si>
+  <si>
+    <t>{RateValue=1 Node=1}</t>
   </si>
   <si>
     <t xml:space="preserve">   其中：{Area=2}</t>
@@ -97,13 +109,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,10 +125,84 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="黑体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,7 +214,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,129 +281,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,187 +304,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,11 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +569,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,32 +605,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,137 +630,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,8 +776,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1070,7 +1120,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1106,94 +1156,140 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+    <row r="14" ht="14.25" spans="1:4">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
@@ -1210,75 +1306,111 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+    <row r="25" ht="14.25" spans="1:4">
+      <c r="A25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:3">

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地审批-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地审批-导出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="19005" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
-  <si>
-    <t>{Form=1}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+  <si>
+    <t>{Form=2} 2</t>
   </si>
   <si>
     <t>建设用地审批（亩）</t>
   </si>
   <si>
-    <t>{Quarter}季度</t>
-  </si>
-  <si>
-    <t>{Rate}同比%</t>
-  </si>
-  <si>
-    <t>{Node=1}</t>
+    <t>{Quarter}</t>
+  </si>
+  <si>
+    <t>同比%</t>
+  </si>
+  <si>
+    <t>{Node=8}</t>
   </si>
   <si>
     <t>{Value=1}</t>
@@ -39,70 +39,73 @@
     <t>{RateValue=1}</t>
   </si>
   <si>
-    <t xml:space="preserve">    其中：{Node=3}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          -{Node=4}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          --{Node=5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          -{Node=6}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Node=7}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         {Node=8}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         -{Node=9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         -{Node=10}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         -{Node=11}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         -{Node=12}</t>
-  </si>
-  <si>
-    <t>分区建设用地审核情况（亩）</t>
+    <t xml:space="preserve">    其中：{Node=9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          -{Node=10}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          --{Node=12}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          -{Node=11}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Node=13}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         {Node=14}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         -{Node=15}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         -{Node=16}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         -{Node=17}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         -{Node=18}</t>
+  </si>
+  <si>
+    <t>分区建设用地审批情况（亩）</t>
   </si>
   <si>
     <t>{Area=1}</t>
   </si>
   <si>
-    <t>{Value=1 Node=1}</t>
-  </si>
-  <si>
-    <t>{RateValue=1 Node=1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   其中：{Area=2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         {Area=9}</t>
+    <t>{Value=1 Node=8}</t>
+  </si>
+  <si>
+    <t>{RateValue=1 Node=8}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中:{Area=6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=7}</t>
+  </si>
+  <si>
+    <t>{Area=2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Area=8}</t>
   </si>
   <si>
     <t>{Area=3}</t>
   </si>
   <si>
-    <t xml:space="preserve">   其中：{Area=10}</t>
+    <t xml:space="preserve">    其中：{Area=9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=10}</t>
+  </si>
+  <si>
+    <t>{Area=4}</t>
   </si>
   <si>
     <t>{Area=5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=11}</t>
-  </si>
-  <si>
-    <t>{Area=4}</t>
-  </si>
-  <si>
-    <t>{Area=6}</t>
   </si>
 </sst>
 </file>
@@ -116,18 +119,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0099FF"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
@@ -145,6 +155,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -154,12 +176,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -167,24 +197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,59 +214,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,7 +229,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,18 +290,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="12"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -310,19 +337,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +463,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,13 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,133 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,37 +535,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF0099FF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,20 +568,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +595,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,172 +657,187 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -853,6 +895,7 @@
   <colors>
     <mruColors>
       <color rgb="000000FF"/>
+      <color rgb="000099FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1120,17 +1163,17 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1330,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1297,126 +1340,121 @@
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:4">
+    </row>
+    <row r="16" ht="14.25" spans="1:3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+    </row>
+    <row r="17" ht="22.5" spans="1:3">
+      <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
+    </row>
+    <row r="18" ht="22.5" spans="1:3">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
+    </row>
+    <row r="19" ht="22.5" spans="1:3">
+      <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
+    </row>
+    <row r="20" ht="22.5" spans="1:3">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+    </row>
+    <row r="21" ht="22.5" spans="1:3">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
+    </row>
+    <row r="22" ht="22.5" spans="1:3">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
+    </row>
+    <row r="23" ht="22.5" spans="1:3">
+      <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
+    </row>
+    <row r="24" ht="22.5" spans="1:3">
+      <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:4">
-      <c r="A25" s="9" t="s">
+    </row>
+    <row r="25" ht="22.5" spans="1:3">
+      <c r="A25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+    </row>
+    <row r="26" ht="23.25" spans="1:3">
+      <c r="A26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
